--- a/OP1S.xlsx
+++ b/OP1S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA3B0E3-F77B-41B2-AF2B-77691316E451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5558C0-1347-46D2-8A38-49BBAE6559EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
   <si>
     <t>Protein content</t>
   </si>
@@ -353,9 +353,6 @@
     <t>455.85</t>
   </si>
   <si>
-    <t>Oils/fat content</t>
-  </si>
-  <si>
     <t>95.0%</t>
   </si>
   <si>
@@ -431,7 +428,13 @@
     <t xml:space="preserve">Maltodextrine </t>
   </si>
   <si>
-    <t>z</t>
+    <t>Oils/fat</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -514,35 +517,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -557,12 +536,6 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -899,25 +872,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F327A73A-5982-48E2-8B94-FF618D626A41}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.0546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -929,15 +910,15 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -961,10 +942,12 @@
         <v>950</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>10</v>
@@ -987,14 +970,13 @@
       <c r="I3" s="4">
         <v>5100</v>
       </c>
-      <c r="K3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -1018,10 +1000,12 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -1045,10 +1029,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -1072,10 +1058,12 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -1099,12 +1087,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -1128,10 +1116,12 @@
         <v>6038</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>34</v>
@@ -1155,10 +1145,12 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>40</v>
@@ -1182,10 +1174,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>30</v>
@@ -1209,10 +1203,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>43</v>
@@ -1236,12 +1232,12 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>54</v>
@@ -1265,10 +1261,12 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>60</v>
@@ -1292,10 +1290,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>60</v>
@@ -1319,10 +1319,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>69</v>
@@ -1346,10 +1348,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
@@ -1374,9 +1378,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>32</v>
@@ -1401,11 +1407,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>78</v>
@@ -1430,9 +1436,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3" t="s">
         <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>85</v>
@@ -1456,10 +1464,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>90</v>
@@ -1483,10 +1493,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
         <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>40</v>
@@ -1511,9 +1523,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3" t="s">
         <v>99</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>100</v>
@@ -1538,17 +1552,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
+      <c r="A24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4">
         <v>763</v>
@@ -1567,15 +1581,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3" t="s">
-        <v>126</v>
+      <c r="A25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="4">
         <v>884</v>
@@ -1590,19 +1606,21 @@
         <v>32</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>127</v>
+      <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="4">
         <v>884</v>
@@ -1617,18 +1635,18 @@
         <v>32</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>55</v>
@@ -1643,22 +1661,24 @@
         <v>45</v>
       </c>
       <c r="H27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3" t="s">
-        <v>129</v>
+    </row>
+    <row r="28" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="4">
         <v>465</v>
@@ -1667,19 +1687,21 @@
         <v>54</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="I28" s="4">
         <v>7500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3" t="s">
-        <v>130</v>
+    <row r="29" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1694,24 +1716,16 @@
         <v>32</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="I29" s="4">
         <v>800</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A29"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/OP1S.xlsx
+++ b/OP1S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5558C0-1347-46D2-8A38-49BBAE6559EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9AE602-2737-4316-ABFC-3BCEED5CCE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -398,12 +398,6 @@
     <t xml:space="preserve">Fat content </t>
   </si>
   <si>
-    <t xml:space="preserve">Calories (kcal./100g) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost $ per ton </t>
-  </si>
-  <si>
     <t xml:space="preserve">Apples </t>
   </si>
   <si>
@@ -435,6 +429,12 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Calories</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -886,10 +886,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -910,12 +910,12 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="19" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>77</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="24" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="25" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>32</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="26" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="27" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>110</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="28" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>110</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="29" spans="1:9" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>110</v>
